--- a/timema23_RFseq_mastermixcockatils.xlsx
+++ b/timema23_RFseq_mastermixcockatils.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasparchman/Documents/GitHub/planidin_timema/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C16EB1-43E5-6140-A7D2-89E393DA91F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3398CB87-55FF-664D-9828-B49C2A2CCCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3920" yWindow="500" windowWidth="22860" windowHeight="19720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="46">
   <si>
     <t>Master Mix 1</t>
   </si>
@@ -906,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1223,6 +1223,9 @@
         <f>B29*E1</f>
         <v>7240.8960000000006</v>
       </c>
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
@@ -1235,6 +1238,9 @@
         <f>4*E1</f>
         <v>2995.2000000000003</v>
       </c>
+      <c r="D30" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
@@ -1247,6 +1253,9 @@
         <f>B31*E1</f>
         <v>299.52000000000004</v>
       </c>
+      <c r="D31" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
@@ -1259,6 +1268,9 @@
         <f>B32*E1</f>
         <v>299.52000000000004</v>
       </c>
+      <c r="D32" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
@@ -1271,7 +1283,9 @@
         <f>B33*E1</f>
         <v>995.90400000000011</v>
       </c>
-      <c r="D33" s="25"/>
+      <c r="D33" s="25" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
@@ -1284,6 +1298,9 @@
         <f>B34*E1</f>
         <v>149.76000000000002</v>
       </c>
+      <c r="D34" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
@@ -1295,6 +1312,9 @@
       <c r="C35" s="11">
         <f>B35*E1</f>
         <v>112.32000000000001</v>
+      </c>
+      <c r="D35" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1360,6 +1380,9 @@
         <f>E$1*B44</f>
         <v>318.24</v>
       </c>
+      <c r="D44" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
@@ -1372,6 +1395,9 @@
         <f>E$1*B45</f>
         <v>299.52000000000004</v>
       </c>
+      <c r="D45" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
@@ -1383,6 +1409,9 @@
       <c r="C46" s="11">
         <f>E$1*B46</f>
         <v>995.90400000000011</v>
+      </c>
+      <c r="D46" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">

--- a/timema23_RFseq_mastermixcockatils.xlsx
+++ b/timema23_RFseq_mastermixcockatils.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasparchman/Documents/GitHub/planidin_timema/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3398CB87-55FF-664D-9828-B49C2A2CCCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384036C0-E26E-C64D-9FE9-6AB0F2AED9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="500" windowWidth="22860" windowHeight="19720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18700" yWindow="500" windowWidth="22860" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="46">
   <si>
     <t>Master Mix 1</t>
   </si>
@@ -223,6 +223,7 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -906,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1223,9 +1224,6 @@
         <f>B29*E1</f>
         <v>7240.8960000000006</v>
       </c>
-      <c r="D29" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
@@ -1238,9 +1236,6 @@
         <f>4*E1</f>
         <v>2995.2000000000003</v>
       </c>
-      <c r="D30" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
@@ -1253,9 +1248,6 @@
         <f>B31*E1</f>
         <v>299.52000000000004</v>
       </c>
-      <c r="D31" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
@@ -1268,9 +1260,6 @@
         <f>B32*E1</f>
         <v>299.52000000000004</v>
       </c>
-      <c r="D32" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
@@ -1283,9 +1272,7 @@
         <f>B33*E1</f>
         <v>995.90400000000011</v>
       </c>
-      <c r="D33" s="25" t="s">
-        <v>45</v>
-      </c>
+      <c r="D33" s="25"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
@@ -1298,9 +1285,6 @@
         <f>B34*E1</f>
         <v>149.76000000000002</v>
       </c>
-      <c r="D34" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
@@ -1312,9 +1296,6 @@
       <c r="C35" s="11">
         <f>B35*E1</f>
         <v>112.32000000000001</v>
-      </c>
-      <c r="D35" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1380,9 +1361,6 @@
         <f>E$1*B44</f>
         <v>318.24</v>
       </c>
-      <c r="D44" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
@@ -1395,9 +1373,6 @@
         <f>E$1*B45</f>
         <v>299.52000000000004</v>
       </c>
-      <c r="D45" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
@@ -1409,9 +1384,6 @@
       <c r="C46" s="11">
         <f>E$1*B46</f>
         <v>995.90400000000011</v>
-      </c>
-      <c r="D46" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">

--- a/timema23_RFseq_mastermixcockatils.xlsx
+++ b/timema23_RFseq_mastermixcockatils.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasparchman/Documents/GitHub/planidin_timema/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384036C0-E26E-C64D-9FE9-6AB0F2AED9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C543DE-7601-D944-BBC5-D2A2786C33AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18700" yWindow="500" windowWidth="22860" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="500" windowWidth="22860" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
   <si>
     <t>Master Mix 1</t>
   </si>
@@ -179,7 +179,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -226,6 +226,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -528,33 +541,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -908,14 +923,14 @@
   <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="3" max="3" width="16" style="20" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="19.5" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
@@ -925,128 +940,128 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="6">
-        <f xml:space="preserve"> 576*1.3</f>
-        <v>748.80000000000007</v>
+      <c r="E1" s="5">
+        <f xml:space="preserve"> 510*1.3</f>
+        <v>663</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="21" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>1.1499999999999999</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="22">
         <f>1.15*E1</f>
-        <v>861.12</v>
+        <v>762.44999999999993</v>
       </c>
       <c r="D3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>0.6</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="23">
         <f>0.6*E1</f>
-        <v>449.28000000000003</v>
+        <v>397.8</v>
       </c>
       <c r="D4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>0.6</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="23">
         <f>0.6 * E1</f>
-        <v>449.28000000000003</v>
+        <v>397.8</v>
       </c>
       <c r="D5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>0.25</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="23">
         <f>0.25*E1</f>
-        <v>187.20000000000002</v>
+        <v>165.75</v>
       </c>
       <c r="D6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>0.12</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="23">
         <f>0.12*E1</f>
-        <v>89.856000000000009</v>
+        <v>79.56</v>
       </c>
       <c r="D7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="10">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="24">
         <f>0.28*E1</f>
-        <v>209.66400000000004</v>
+        <v>185.64000000000001</v>
       </c>
       <c r="D8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C9" s="4"/>
+      <c r="C9" s="25"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="25">
         <f>SUM(C3:C9)</f>
-        <v>2246.4</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="25">
         <f>C10/12</f>
-        <v>187.20000000000002</v>
+        <v>165.75</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1060,123 +1075,123 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="26" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>1</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="23">
         <f>B15*E1</f>
-        <v>748.80000000000007</v>
+        <v>663</v>
       </c>
       <c r="D15" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="4">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="23">
         <f>B16*E1</f>
-        <v>53.913600000000002</v>
+        <v>47.735999999999997</v>
       </c>
       <c r="D16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="4">
         <v>0.1</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="23">
         <f>B17*E1</f>
-        <v>74.88000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="D17" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>0.05</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="23">
         <f>B18*E1</f>
-        <v>37.440000000000005</v>
+        <v>33.15</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>0.05</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="23">
         <f>B19*E1</f>
-        <v>37.440000000000005</v>
+        <v>33.15</v>
       </c>
       <c r="D19" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="10">
         <v>0.16750000000000001</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="24">
         <f>B20*E1</f>
-        <v>125.42400000000002</v>
+        <v>111.05250000000001</v>
       </c>
       <c r="D20" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C21" s="4"/>
+      <c r="C21" s="25"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="25">
         <f>SUM(C15:C20)</f>
-        <v>1077.8976000000002</v>
+        <v>954.38849999999991</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="25">
         <f>C22/12</f>
-        <v>89.824800000000025</v>
+        <v>79.532374999999988</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>13</v>
@@ -1184,19 +1199,19 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="C24" s="21"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="21"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="C26" s="21"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1205,122 +1220,122 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19" t="s">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="27" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="4">
         <v>9.67</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="23">
         <f>B29*E1</f>
-        <v>7240.8960000000006</v>
+        <v>6411.21</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>4</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="23">
         <f>4*E1</f>
-        <v>2995.2000000000003</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>0.4</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="23">
         <f>B31*E1</f>
-        <v>299.52000000000004</v>
+        <v>265.2</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>0.4</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="23">
         <f>B32*E1</f>
-        <v>299.52000000000004</v>
+        <v>265.2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <v>1.33</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="23">
         <f>B33*E1</f>
-        <v>995.90400000000011</v>
-      </c>
-      <c r="D33" s="25"/>
+        <v>881.79000000000008</v>
+      </c>
+      <c r="D33" s="19"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <v>0.2</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="23">
         <f>B34*E1</f>
-        <v>149.76000000000002</v>
+        <v>132.6</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="4">
         <v>0.15</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="23">
         <f>B35*E1</f>
-        <v>112.32000000000001</v>
+        <v>99.45</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="10">
         <v>4</v>
       </c>
-      <c r="C36" s="14"/>
+      <c r="C36" s="24"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C37" s="4"/>
+      <c r="C37" s="25"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="25">
         <f>SUM(C29:C37)</f>
-        <v>12093.120000000003</v>
+        <v>10707.450000000003</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="21" t="s">
         <v>14</v>
       </c>
       <c r="D39" t="s">
@@ -1328,13 +1343,13 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C40" s="2"/>
+      <c r="C40" s="21"/>
       <c r="D40" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C41" s="2"/>
+      <c r="C41" s="21"/>
     </row>
     <row r="42" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -1342,57 +1357,66 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="18"/>
-      <c r="B43" s="19" t="s">
+      <c r="A43" s="13"/>
+      <c r="B43" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="27" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="4">
         <v>0.42499999999999999</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="23">
         <f>E$1*B44</f>
-        <v>318.24</v>
+        <v>281.77499999999998</v>
+      </c>
+      <c r="D44" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="4">
         <v>0.4</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="23">
         <f>E$1*B45</f>
-        <v>299.52000000000004</v>
+        <v>265.2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="4">
         <v>1.33</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="23">
         <f>E$1*B46</f>
-        <v>995.90400000000011</v>
+        <v>881.79000000000008</v>
+      </c>
+      <c r="D46" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="25">
         <f>SUM(C44:C46)</f>
-        <v>1613.6640000000002</v>
+        <v>1428.7649999999999</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1402,17 +1426,17 @@
       <c r="B48">
         <v>2.125</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="20">
         <f>C47/12</f>
-        <v>134.47200000000001</v>
+        <v>119.06374999999998</v>
       </c>
       <c r="D48" s="1">
         <f>C48 * (3/7)</f>
-        <v>57.630857142857145</v>
+        <v>51.027321428571419</v>
       </c>
       <c r="E48" s="2">
         <f>C48 * (4/7)</f>
-        <v>76.841142857142856</v>
+        <v>68.036428571428559</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -1424,25 +1448,25 @@
       <c r="A52" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G52" s="22" t="s">
+      <c r="G52" s="16" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="21">
+      <c r="B53" s="15">
         <f>C3+C17</f>
-        <v>936</v>
-      </c>
-      <c r="D53" s="23" t="s">
+        <v>828.74999999999989</v>
+      </c>
+      <c r="D53" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E53" s="23" t="s">
+      <c r="E53" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F53" s="23" t="s">
+      <c r="F53" s="17" t="s">
         <v>35</v>
       </c>
       <c r="G53">
@@ -1450,201 +1474,201 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="21" t="s">
+      <c r="A54" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="21">
+      <c r="B54" s="15">
         <f>C18+C4</f>
-        <v>486.72</v>
-      </c>
-      <c r="D54" s="5" t="s">
+        <v>430.95</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E54" s="4">
         <v>4.5</v>
       </c>
-      <c r="F54" s="23">
+      <c r="F54" s="17">
         <f>E54*G53</f>
         <v>31.5</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="21" t="s">
+      <c r="A55" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B55" s="21">
+      <c r="B55" s="15">
         <f>C5+C19</f>
-        <v>486.72</v>
-      </c>
-      <c r="D55" s="5" t="s">
+        <v>430.95</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E55" s="4">
         <v>0.25</v>
       </c>
-      <c r="F55" s="23">
+      <c r="F55" s="17">
         <f>E55*G53</f>
         <v>1.75</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="21">
+      <c r="B56" s="15">
         <f>C29+C16+C6</f>
-        <v>7482.0096000000003</v>
-      </c>
-      <c r="D56" s="5" t="s">
+        <v>6624.6959999999999</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E56" s="4">
         <v>0.5</v>
       </c>
-      <c r="F56" s="23">
+      <c r="F56" s="17">
         <f>E56*G53</f>
         <v>3.5</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="21">
+      <c r="B57" s="15">
         <f>C7</f>
-        <v>89.856000000000009</v>
-      </c>
-      <c r="D57" s="5" t="s">
+        <v>79.56</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57" s="4">
         <v>0</v>
       </c>
-      <c r="F57" s="23">
+      <c r="F57" s="17">
         <f>E57*G53</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B58" s="21">
+      <c r="B58" s="15">
         <f>C8</f>
-        <v>209.66400000000004</v>
-      </c>
-      <c r="D58" s="5" t="s">
+        <v>185.64000000000001</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E58" s="5">
+      <c r="E58" s="4">
         <v>2.5</v>
       </c>
-      <c r="F58" s="23">
+      <c r="F58" s="17">
         <f>E58*G53</f>
         <v>17.5</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="21" t="s">
+      <c r="A59" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B59" s="21">
+      <c r="B59" s="15">
         <f>C15</f>
-        <v>748.80000000000007</v>
-      </c>
-      <c r="D59" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E59" s="5">
+      <c r="E59" s="4">
         <v>42</v>
       </c>
-      <c r="F59" s="23">
+      <c r="F59" s="17">
         <f>E59*G53</f>
         <v>294</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="21" t="s">
+      <c r="A60" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B60" s="21">
+      <c r="B60" s="15">
         <f>C20</f>
-        <v>125.42400000000002</v>
-      </c>
-      <c r="D60" s="5" t="s">
+        <v>111.05250000000001</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E60" s="4">
         <v>2</v>
       </c>
-      <c r="F60" s="23">
+      <c r="F60" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B61" s="21">
+      <c r="B61" s="15">
         <f>C30+C44</f>
-        <v>3313.4400000000005</v>
-      </c>
-      <c r="D61" s="5" t="s">
+        <v>2933.7750000000001</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E61" s="4">
         <v>0</v>
       </c>
-      <c r="F61" s="23">
+      <c r="F61" s="17">
         <v>2</v>
       </c>
-      <c r="G61" s="22" t="s">
+      <c r="G61" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="21" t="s">
+      <c r="A62" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B62" s="21">
+      <c r="B62" s="15">
         <f>C31+C45</f>
-        <v>599.04000000000008</v>
+        <v>530.4</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="21" t="s">
+      <c r="A63" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B63" s="21">
+      <c r="B63" s="15">
         <f>C32</f>
-        <v>299.52000000000004</v>
+        <v>265.2</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="21" t="s">
+      <c r="A64" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B64" s="21">
+      <c r="B64" s="15">
         <f>C33+C46</f>
-        <v>1991.8080000000002</v>
+        <v>1763.5800000000002</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B65" s="21">
+      <c r="B65" s="15">
         <f>C34</f>
-        <v>149.76000000000002</v>
+        <v>132.6</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="21" t="s">
+      <c r="A66" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B66" s="21">
+      <c r="B66" s="15">
         <f>C35</f>
-        <v>112.32000000000001</v>
+        <v>99.45</v>
       </c>
     </row>
   </sheetData>

--- a/timema23_RFseq_mastermixcockatils.xlsx
+++ b/timema23_RFseq_mastermixcockatils.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasparchman/Documents/GitHub/planidin_timema/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C543DE-7601-D944-BBC5-D2A2786C33AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B128EFF-EEC7-8345-943A-A8A538BD1D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="500" windowWidth="22860" windowHeight="16120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="46">
   <si>
     <t>Master Mix 1</t>
   </si>
@@ -922,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1239,6 +1239,9 @@
         <f>B29*E1</f>
         <v>6411.21</v>
       </c>
+      <c r="D29" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
@@ -1251,6 +1254,9 @@
         <f>4*E1</f>
         <v>2652</v>
       </c>
+      <c r="D30" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
@@ -1263,6 +1269,9 @@
         <f>B31*E1</f>
         <v>265.2</v>
       </c>
+      <c r="D31" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
@@ -1275,6 +1284,9 @@
         <f>B32*E1</f>
         <v>265.2</v>
       </c>
+      <c r="D32" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
@@ -1287,7 +1299,9 @@
         <f>B33*E1</f>
         <v>881.79000000000008</v>
       </c>
-      <c r="D33" s="19"/>
+      <c r="D33" s="19" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
@@ -1300,6 +1314,9 @@
         <f>B34*E1</f>
         <v>132.6</v>
       </c>
+      <c r="D34" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
@@ -1311,6 +1328,9 @@
       <c r="C35" s="23">
         <f>B35*E1</f>
         <v>99.45</v>
+      </c>
+      <c r="D35" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
